--- a/Code/Results/Cases/Case_2_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_230/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000621467588689</v>
+        <v>1.033348942174757</v>
       </c>
       <c r="D2">
-        <v>1.022231252413857</v>
+        <v>1.042280535274918</v>
       </c>
       <c r="E2">
-        <v>1.019948189883807</v>
+        <v>1.050627189925885</v>
       </c>
       <c r="F2">
-        <v>1.026783805087234</v>
+        <v>1.055509705240836</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043831724194612</v>
+        <v>1.034158759020832</v>
       </c>
       <c r="J2">
-        <v>1.02278360654241</v>
+        <v>1.038474157959292</v>
       </c>
       <c r="K2">
-        <v>1.033389320772734</v>
+        <v>1.045057667961704</v>
       </c>
       <c r="L2">
-        <v>1.031136437708935</v>
+        <v>1.053380942084291</v>
       </c>
       <c r="M2">
-        <v>1.037882195741507</v>
+        <v>1.058249966318539</v>
       </c>
       <c r="N2">
-        <v>1.024236076578619</v>
+        <v>1.039948910378246</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005255638576852</v>
+        <v>1.034330382771139</v>
       </c>
       <c r="D3">
-        <v>1.025757851263709</v>
+        <v>1.043049099221802</v>
       </c>
       <c r="E3">
-        <v>1.024158305913573</v>
+        <v>1.051599461722723</v>
       </c>
       <c r="F3">
-        <v>1.031041090234071</v>
+        <v>1.056477108623294</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044858108371956</v>
+        <v>1.034311384687696</v>
       </c>
       <c r="J3">
-        <v>1.025604047790632</v>
+        <v>1.039098112899147</v>
       </c>
       <c r="K3">
-        <v>1.036071431071953</v>
+        <v>1.045637142082738</v>
       </c>
       <c r="L3">
-        <v>1.034491133329071</v>
+        <v>1.054165286458485</v>
       </c>
       <c r="M3">
-        <v>1.041291621827919</v>
+        <v>1.059030432529311</v>
       </c>
       <c r="N3">
-        <v>1.027060523176923</v>
+        <v>1.040573751405683</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008192435649635</v>
+        <v>1.034965817471187</v>
       </c>
       <c r="D4">
-        <v>1.027995065096398</v>
+        <v>1.043546569137339</v>
       </c>
       <c r="E4">
-        <v>1.026835993377338</v>
+        <v>1.05222970333967</v>
       </c>
       <c r="F4">
-        <v>1.033746075115015</v>
+        <v>1.057103907580313</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04549771628455</v>
+        <v>1.034408824706331</v>
       </c>
       <c r="J4">
-        <v>1.027388874576283</v>
+        <v>1.039501634388372</v>
       </c>
       <c r="K4">
-        <v>1.037766959020802</v>
+        <v>1.046011597954687</v>
       </c>
       <c r="L4">
-        <v>1.036620970992783</v>
+        <v>1.054673305958044</v>
       </c>
       <c r="M4">
-        <v>1.043453585085743</v>
+        <v>1.059535648620599</v>
       </c>
       <c r="N4">
-        <v>1.028847884621333</v>
+        <v>1.040977845941707</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009412800587356</v>
+        <v>1.035233043797169</v>
       </c>
       <c r="D5">
-        <v>1.028925217844828</v>
+        <v>1.043755741998521</v>
       </c>
       <c r="E5">
-        <v>1.027950948796011</v>
+        <v>1.052494923098805</v>
       </c>
       <c r="F5">
-        <v>1.034871749378956</v>
+        <v>1.057367610003806</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045760855486533</v>
+        <v>1.03444947223664</v>
       </c>
       <c r="J5">
-        <v>1.028129895409261</v>
+        <v>1.039671221576712</v>
       </c>
       <c r="K5">
-        <v>1.038470465833201</v>
+        <v>1.046168897943363</v>
       </c>
       <c r="L5">
-        <v>1.037506894173277</v>
+        <v>1.054886995156008</v>
       </c>
       <c r="M5">
-        <v>1.044352240528195</v>
+        <v>1.059748088848261</v>
       </c>
       <c r="N5">
-        <v>1.02958995778889</v>
+        <v>1.041147673963307</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009616883817647</v>
+        <v>1.035277917506446</v>
       </c>
       <c r="D6">
-        <v>1.029080795858958</v>
+        <v>1.043790865147357</v>
       </c>
       <c r="E6">
-        <v>1.02813753586032</v>
+        <v>1.052539470238581</v>
       </c>
       <c r="F6">
-        <v>1.035060092208659</v>
+        <v>1.0574118982683</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04580470381618</v>
+        <v>1.034456278576532</v>
       </c>
       <c r="J6">
-        <v>1.028253777977919</v>
+        <v>1.03969969286634</v>
       </c>
       <c r="K6">
-        <v>1.038588050577316</v>
+        <v>1.046195302165895</v>
       </c>
       <c r="L6">
-        <v>1.03765509895934</v>
+        <v>1.054922881391439</v>
       </c>
       <c r="M6">
-        <v>1.044502538157924</v>
+        <v>1.059783761245637</v>
       </c>
       <c r="N6">
-        <v>1.029714016285004</v>
+        <v>1.041176185685431</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008208797585968</v>
+        <v>1.034969387811292</v>
       </c>
       <c r="D7">
-        <v>1.028007534162801</v>
+        <v>1.043549363973444</v>
       </c>
       <c r="E7">
-        <v>1.026850933171568</v>
+        <v>1.052233246174616</v>
       </c>
       <c r="F7">
-        <v>1.033761161090397</v>
+        <v>1.057107430415791</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045501254808706</v>
+        <v>1.034409369083884</v>
       </c>
       <c r="J7">
-        <v>1.027398812367996</v>
+        <v>1.039503900630901</v>
       </c>
       <c r="K7">
-        <v>1.037776395471083</v>
+        <v>1.04601370028247</v>
       </c>
       <c r="L7">
-        <v>1.036632845495844</v>
+        <v>1.054676160821944</v>
       </c>
       <c r="M7">
-        <v>1.043465632738683</v>
+        <v>1.059538487072439</v>
       </c>
       <c r="N7">
-        <v>1.02885783652585</v>
+        <v>1.040980115402561</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002200739231714</v>
+        <v>1.03368054614868</v>
       </c>
       <c r="D8">
-        <v>1.023432553055615</v>
+        <v>1.042540241675745</v>
       </c>
       <c r="E8">
-        <v>1.021380899755263</v>
+        <v>1.050955541797798</v>
       </c>
       <c r="F8">
-        <v>1.028233132843789</v>
+        <v>1.055836472353252</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044183749708764</v>
+        <v>1.034210612394826</v>
       </c>
       <c r="J8">
-        <v>1.023745294761352</v>
+        <v>1.038685071334617</v>
       </c>
       <c r="K8">
-        <v>1.034304201436218</v>
+        <v>1.045253607469034</v>
       </c>
       <c r="L8">
-        <v>1.032278836853591</v>
+        <v>1.053645911585388</v>
       </c>
       <c r="M8">
-        <v>1.039043780951763</v>
+        <v>1.058513686022883</v>
       </c>
       <c r="N8">
-        <v>1.02519913050514</v>
+        <v>1.040160123274755</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.991114765633587</v>
+        <v>1.031412359731079</v>
       </c>
       <c r="D9">
-        <v>1.015012258230423</v>
+        <v>1.040763300994947</v>
       </c>
       <c r="E9">
-        <v>1.011366727488033</v>
+        <v>1.048712668016438</v>
       </c>
       <c r="F9">
-        <v>1.018091350086946</v>
+        <v>1.053603247467022</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04166848974617</v>
+        <v>1.033850297140171</v>
       </c>
       <c r="J9">
-        <v>1.016985233719603</v>
+        <v>1.037240546735714</v>
       </c>
       <c r="K9">
-        <v>1.027866378555795</v>
+        <v>1.043910418167545</v>
       </c>
       <c r="L9">
-        <v>1.024278040603339</v>
+        <v>1.051834325589952</v>
       </c>
       <c r="M9">
-        <v>1.03089757179408</v>
+        <v>1.056709450598644</v>
       </c>
       <c r="N9">
-        <v>1.018429469401321</v>
+        <v>1.038713547285232</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9833505135861254</v>
+        <v>1.02990223528264</v>
       </c>
       <c r="D10">
-        <v>1.009133836299854</v>
+        <v>1.039579594510025</v>
       </c>
       <c r="E10">
-        <v>1.004410334749838</v>
+        <v>1.047223272592382</v>
       </c>
       <c r="F10">
-        <v>1.011031694089452</v>
+        <v>1.052118780524098</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039852840977801</v>
+        <v>1.033603337745488</v>
       </c>
       <c r="J10">
-        <v>1.012240643839027</v>
+        <v>1.036276472168579</v>
       </c>
       <c r="K10">
-        <v>1.0233401118401</v>
+        <v>1.043012452178951</v>
       </c>
       <c r="L10">
-        <v>1.018700413218511</v>
+        <v>1.050629245227095</v>
       </c>
       <c r="M10">
-        <v>1.02520458416751</v>
+        <v>1.055507760143365</v>
       </c>
       <c r="N10">
-        <v>1.013678141658903</v>
+        <v>1.037748103621631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9798906287993027</v>
+        <v>1.029248816567518</v>
       </c>
       <c r="D11">
-        <v>1.006519831076353</v>
+        <v>1.039067269842546</v>
       </c>
       <c r="E11">
-        <v>1.00132491167987</v>
+        <v>1.046579750483607</v>
       </c>
       <c r="F11">
-        <v>1.007896967985921</v>
+        <v>1.051477035971391</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03903162867498</v>
+        <v>1.033494806616595</v>
       </c>
       <c r="J11">
-        <v>1.010124588425755</v>
+        <v>1.03585877568433</v>
       </c>
       <c r="K11">
-        <v>1.021319831507843</v>
+        <v>1.042623039639365</v>
       </c>
       <c r="L11">
-        <v>1.016221885285822</v>
+        <v>1.050108071216006</v>
       </c>
       <c r="M11">
-        <v>1.022671480000271</v>
+        <v>1.054987696166408</v>
       </c>
       <c r="N11">
-        <v>1.011559081204229</v>
+        <v>1.037329813960464</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9785899074007306</v>
+        <v>1.029006179677952</v>
       </c>
       <c r="D12">
-        <v>1.0055380360073</v>
+        <v>1.038877005079126</v>
       </c>
       <c r="E12">
-        <v>1.000167221964647</v>
+        <v>1.046340928547306</v>
       </c>
       <c r="F12">
-        <v>1.006720249560055</v>
+        <v>1.05123882074816</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038721138614862</v>
+        <v>1.033454253967133</v>
       </c>
       <c r="J12">
-        <v>1.009328857029064</v>
+        <v>1.035703588391589</v>
       </c>
       <c r="K12">
-        <v>1.020559899577682</v>
+        <v>1.042478307096105</v>
       </c>
       <c r="L12">
-        <v>1.015291218966674</v>
+        <v>1.049914580130366</v>
       </c>
       <c r="M12">
-        <v>1.021719822869689</v>
+        <v>1.05479456366693</v>
       </c>
       <c r="N12">
-        <v>1.010762219777683</v>
+        <v>1.037174406283967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9788696353940317</v>
+        <v>1.029058222851549</v>
       </c>
       <c r="D13">
-        <v>1.0057491336904</v>
+        <v>1.038917815894762</v>
       </c>
       <c r="E13">
-        <v>1.000416086870174</v>
+        <v>1.046392147105199</v>
       </c>
       <c r="F13">
-        <v>1.006973229000885</v>
+        <v>1.051289911587134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038787989902684</v>
+        <v>1.033462963472425</v>
       </c>
       <c r="J13">
-        <v>1.009499992643098</v>
+        <v>1.035736878220266</v>
       </c>
       <c r="K13">
-        <v>1.020723345287029</v>
+        <v>1.042509356658689</v>
       </c>
       <c r="L13">
-        <v>1.015491312517714</v>
+        <v>1.049956080259148</v>
       </c>
       <c r="M13">
-        <v>1.021924451954443</v>
+        <v>1.054835989308705</v>
       </c>
       <c r="N13">
-        <v>1.010933598423919</v>
+        <v>1.03720774338802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9797834334794775</v>
+        <v>1.029228758656408</v>
       </c>
       <c r="D14">
-        <v>1.006438899854715</v>
+        <v>1.039051541768351</v>
       </c>
       <c r="E14">
-        <v>1.001229457592343</v>
+        <v>1.046560005080636</v>
       </c>
       <c r="F14">
-        <v>1.007799955730184</v>
+        <v>1.051457341811862</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039006075921151</v>
+        <v>1.033491459402193</v>
       </c>
       <c r="J14">
-        <v>1.010059014473887</v>
+        <v>1.035845948589058</v>
       </c>
       <c r="K14">
-        <v>1.021257211943327</v>
+        <v>1.042611077779926</v>
       </c>
       <c r="L14">
-        <v>1.016145163806627</v>
+        <v>1.050092075215713</v>
       </c>
       <c r="M14">
-        <v>1.022593038222657</v>
+        <v>1.054971730902871</v>
       </c>
       <c r="N14">
-        <v>1.011493414129828</v>
+        <v>1.037316968649246</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9803443653091088</v>
+        <v>1.029333840939539</v>
       </c>
       <c r="D15">
-        <v>1.006862435074523</v>
+        <v>1.039133939422217</v>
       </c>
       <c r="E15">
-        <v>1.001729042296147</v>
+        <v>1.046663455889094</v>
       </c>
       <c r="F15">
-        <v>1.008307673905289</v>
+        <v>1.051560521973367</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039139717029532</v>
+        <v>1.033508984981138</v>
       </c>
       <c r="J15">
-        <v>1.010402141554277</v>
+        <v>1.035913145664838</v>
       </c>
       <c r="K15">
-        <v>1.021584871009342</v>
+        <v>1.042673739965809</v>
       </c>
       <c r="L15">
-        <v>1.016546678191217</v>
+        <v>1.050175878965325</v>
       </c>
       <c r="M15">
-        <v>1.023003535318502</v>
+        <v>1.055055371428649</v>
       </c>
       <c r="N15">
-        <v>1.011837028490029</v>
+        <v>1.037384261152581</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9835780002020967</v>
+        <v>1.029945610586553</v>
       </c>
       <c r="D16">
-        <v>1.009305829337044</v>
+        <v>1.039613600715329</v>
       </c>
       <c r="E16">
-        <v>1.004613508678533</v>
+        <v>1.047266010540331</v>
       </c>
       <c r="F16">
-        <v>1.011238041248462</v>
+        <v>1.052161392991221</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03990658802688</v>
+        <v>1.033610507008779</v>
       </c>
       <c r="J16">
-        <v>1.012379741328716</v>
+        <v>1.036304188189988</v>
       </c>
       <c r="K16">
-        <v>1.023472882353017</v>
+        <v>1.043038283904972</v>
       </c>
       <c r="L16">
-        <v>1.018863527003792</v>
+        <v>1.050663847261696</v>
       </c>
       <c r="M16">
-        <v>1.025371220563145</v>
+        <v>1.055542280972249</v>
       </c>
       <c r="N16">
-        <v>1.013817436682982</v>
+        <v>1.03777585900297</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9855795751305862</v>
+        <v>1.030329485104183</v>
       </c>
       <c r="D17">
-        <v>1.010819774874917</v>
+        <v>1.039914541452087</v>
       </c>
       <c r="E17">
-        <v>1.006402820156228</v>
+        <v>1.047644351664625</v>
       </c>
       <c r="F17">
-        <v>1.013054898918137</v>
+        <v>1.052538582577127</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040378116747722</v>
+        <v>1.033673762086652</v>
       </c>
       <c r="J17">
-        <v>1.013603414645059</v>
+        <v>1.03654941352106</v>
       </c>
       <c r="K17">
-        <v>1.024640717048414</v>
+        <v>1.043266796041657</v>
       </c>
       <c r="L17">
-        <v>1.020299508444824</v>
+        <v>1.050970107211516</v>
       </c>
       <c r="M17">
-        <v>1.0268378359377</v>
+        <v>1.055847781016315</v>
       </c>
       <c r="N17">
-        <v>1.015042847755791</v>
+        <v>1.03802143258214</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9867376738218793</v>
+        <v>1.030553438423583</v>
       </c>
       <c r="D18">
-        <v>1.011696251479159</v>
+        <v>1.040090097017764</v>
       </c>
       <c r="E18">
-        <v>1.007439470860501</v>
+        <v>1.047865166255065</v>
       </c>
       <c r="F18">
-        <v>1.014107175907561</v>
+        <v>1.052758691096052</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040649785885175</v>
+        <v>1.033710503675289</v>
       </c>
       <c r="J18">
-        <v>1.014311251433716</v>
+        <v>1.036692425540383</v>
       </c>
       <c r="K18">
-        <v>1.025316100997317</v>
+        <v>1.043400026577678</v>
       </c>
       <c r="L18">
-        <v>1.021131013178673</v>
+        <v>1.051148804542462</v>
       </c>
       <c r="M18">
-        <v>1.027686764456068</v>
+        <v>1.056026000580938</v>
       </c>
       <c r="N18">
-        <v>1.015751689753878</v>
+        <v>1.038164647694934</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.987130988479478</v>
+        <v>1.030629808471763</v>
       </c>
       <c r="D19">
-        <v>1.011994006373495</v>
+        <v>1.040149960612318</v>
       </c>
       <c r="E19">
-        <v>1.007791768638234</v>
+        <v>1.04794048112331</v>
       </c>
       <c r="F19">
-        <v>1.014464727802289</v>
+        <v>1.05283375937721</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040741852823476</v>
+        <v>1.033723005468402</v>
       </c>
       <c r="J19">
-        <v>1.014551616786822</v>
+        <v>1.036741184890166</v>
       </c>
       <c r="K19">
-        <v>1.025545419489579</v>
+        <v>1.043445445099597</v>
       </c>
       <c r="L19">
-        <v>1.021413518594813</v>
+        <v>1.051209746046795</v>
       </c>
       <c r="M19">
-        <v>1.027975136238254</v>
+        <v>1.056086773322207</v>
       </c>
       <c r="N19">
-        <v>1.015992396453356</v>
+        <v>1.038213476288586</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9853658019183179</v>
+        <v>1.030288294259367</v>
       </c>
       <c r="D20">
-        <v>1.010658027385073</v>
+        <v>1.039882251082791</v>
       </c>
       <c r="E20">
-        <v>1.006211574881635</v>
+        <v>1.047603745310844</v>
       </c>
       <c r="F20">
-        <v>1.012860743986397</v>
+        <v>1.052498103330445</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040327875650093</v>
+        <v>1.033666991344113</v>
       </c>
       <c r="J20">
-        <v>1.013472740836744</v>
+        <v>1.036523105617009</v>
       </c>
       <c r="K20">
-        <v>1.024516021840602</v>
+        <v>1.043242284713365</v>
       </c>
       <c r="L20">
-        <v>1.020146073566353</v>
+        <v>1.050937242092352</v>
       </c>
       <c r="M20">
-        <v>1.026681160468718</v>
+        <v>1.055815000998839</v>
       </c>
       <c r="N20">
-        <v>1.01491198837568</v>
+        <v>1.037995087317847</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9795147796117941</v>
+        <v>1.029178538122884</v>
       </c>
       <c r="D21">
-        <v>1.006236084505507</v>
+        <v>1.039012161844214</v>
       </c>
       <c r="E21">
-        <v>1.000990266319616</v>
+        <v>1.046510569261867</v>
       </c>
       <c r="F21">
-        <v>1.007556851413105</v>
+        <v>1.051408033433181</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038942007237075</v>
+        <v>1.033483074664993</v>
       </c>
       <c r="J21">
-        <v>1.009894669192141</v>
+        <v>1.035813831078084</v>
       </c>
       <c r="K21">
-        <v>1.021100267719115</v>
+        <v>1.042581125850514</v>
       </c>
       <c r="L21">
-        <v>1.015952902057796</v>
+        <v>1.05005202542893</v>
       </c>
       <c r="M21">
-        <v>1.022396457434127</v>
+        <v>1.054931757207984</v>
       </c>
       <c r="N21">
-        <v>1.011328835458931</v>
+        <v>1.037284805527722</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9757454778210387</v>
+        <v>1.028481206736565</v>
       </c>
       <c r="D22">
-        <v>1.003392843601505</v>
+        <v>1.038465307766889</v>
       </c>
       <c r="E22">
-        <v>0.9976398180987579</v>
+        <v>1.045824466424179</v>
       </c>
       <c r="F22">
-        <v>1.004150325930948</v>
+        <v>1.050723573735511</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038038988425688</v>
+        <v>1.033366054327454</v>
       </c>
       <c r="J22">
-        <v>1.007588412760282</v>
+        <v>1.035367672817713</v>
       </c>
       <c r="K22">
-        <v>1.018897385908198</v>
+        <v>1.042164923858511</v>
       </c>
       <c r="L22">
-        <v>1.013258176098731</v>
+        <v>1.049496011321965</v>
       </c>
       <c r="M22">
-        <v>1.019640009994404</v>
+        <v>1.054376672673261</v>
       </c>
       <c r="N22">
-        <v>1.009019303878408</v>
+        <v>1.036838013671446</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9777525400052621</v>
+        <v>1.028850835655364</v>
       </c>
       <c r="D23">
-        <v>1.004906256656433</v>
+        <v>1.038755185585723</v>
       </c>
       <c r="E23">
-        <v>0.999422580489771</v>
+        <v>1.046188066477351</v>
       </c>
       <c r="F23">
-        <v>1.00596321888019</v>
+        <v>1.051086332092906</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038520765765966</v>
+        <v>1.033428220122298</v>
       </c>
       <c r="J23">
-        <v>1.008816534509224</v>
+        <v>1.035604209344945</v>
       </c>
       <c r="K23">
-        <v>1.020070568220609</v>
+        <v>1.042385608008583</v>
       </c>
       <c r="L23">
-        <v>1.014692407916444</v>
+        <v>1.049790711834502</v>
       </c>
       <c r="M23">
-        <v>1.021107365547876</v>
+        <v>1.054670909857692</v>
       </c>
       <c r="N23">
-        <v>1.010249169701101</v>
+        <v>1.037074886107678</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.985462425774452</v>
+        <v>1.030306906487534</v>
       </c>
       <c r="D24">
-        <v>1.010731134416053</v>
+        <v>1.039896841643101</v>
       </c>
       <c r="E24">
-        <v>1.006298012051804</v>
+        <v>1.047622093158388</v>
       </c>
       <c r="F24">
-        <v>1.012948497266094</v>
+        <v>1.052516393850042</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040350587826046</v>
+        <v>1.033670051227173</v>
       </c>
       <c r="J24">
-        <v>1.013531804938415</v>
+        <v>1.036534993099908</v>
       </c>
       <c r="K24">
-        <v>1.02457238411167</v>
+        <v>1.043253360502872</v>
       </c>
       <c r="L24">
-        <v>1.020215422932275</v>
+        <v>1.050952092236367</v>
       </c>
       <c r="M24">
-        <v>1.026751975489758</v>
+        <v>1.055829812795741</v>
       </c>
       <c r="N24">
-        <v>1.014971136355151</v>
+        <v>1.038006991682335</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9940436556954436</v>
+        <v>1.031998390633717</v>
       </c>
       <c r="D25">
-        <v>1.017233957990809</v>
+        <v>1.041222525777532</v>
       </c>
       <c r="E25">
-        <v>1.014002874721101</v>
+        <v>1.049291477909878</v>
       </c>
       <c r="F25">
-        <v>1.020763607378106</v>
+        <v>1.054179828090162</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042342544205534</v>
+        <v>1.033944638948899</v>
       </c>
       <c r="J25">
-        <v>1.018773150861408</v>
+        <v>1.037614180874963</v>
       </c>
       <c r="K25">
-        <v>1.029570502600888</v>
+        <v>1.044258110552632</v>
       </c>
       <c r="L25">
-        <v>1.026387634656608</v>
+        <v>1.052302202332692</v>
       </c>
       <c r="M25">
-        <v>1.033047924443935</v>
+        <v>1.057175693432831</v>
       </c>
       <c r="N25">
-        <v>1.020219925590545</v>
+        <v>1.039087712027816</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_230/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033348942174757</v>
+        <v>1.00062146758869</v>
       </c>
       <c r="D2">
-        <v>1.042280535274918</v>
+        <v>1.022231252413857</v>
       </c>
       <c r="E2">
-        <v>1.050627189925885</v>
+        <v>1.019948189883807</v>
       </c>
       <c r="F2">
-        <v>1.055509705240836</v>
+        <v>1.026783805087235</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034158759020832</v>
+        <v>1.043831724194613</v>
       </c>
       <c r="J2">
-        <v>1.038474157959292</v>
+        <v>1.02278360654241</v>
       </c>
       <c r="K2">
-        <v>1.045057667961704</v>
+        <v>1.033389320772735</v>
       </c>
       <c r="L2">
-        <v>1.053380942084291</v>
+        <v>1.031136437708936</v>
       </c>
       <c r="M2">
-        <v>1.058249966318539</v>
+        <v>1.037882195741508</v>
       </c>
       <c r="N2">
-        <v>1.039948910378246</v>
+        <v>1.02423607657862</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034330382771139</v>
+        <v>1.005255638576853</v>
       </c>
       <c r="D3">
-        <v>1.043049099221802</v>
+        <v>1.025757851263709</v>
       </c>
       <c r="E3">
-        <v>1.051599461722723</v>
+        <v>1.024158305913574</v>
       </c>
       <c r="F3">
-        <v>1.056477108623294</v>
+        <v>1.031041090234071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034311384687696</v>
+        <v>1.044858108371956</v>
       </c>
       <c r="J3">
-        <v>1.039098112899147</v>
+        <v>1.025604047790633</v>
       </c>
       <c r="K3">
-        <v>1.045637142082738</v>
+        <v>1.036071431071954</v>
       </c>
       <c r="L3">
-        <v>1.054165286458485</v>
+        <v>1.034491133329071</v>
       </c>
       <c r="M3">
-        <v>1.059030432529311</v>
+        <v>1.04129162182792</v>
       </c>
       <c r="N3">
-        <v>1.040573751405683</v>
+        <v>1.027060523176924</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034965817471187</v>
+        <v>1.008192435649635</v>
       </c>
       <c r="D4">
-        <v>1.043546569137339</v>
+        <v>1.027995065096398</v>
       </c>
       <c r="E4">
-        <v>1.05222970333967</v>
+        <v>1.026835993377338</v>
       </c>
       <c r="F4">
-        <v>1.057103907580313</v>
+        <v>1.033746075115015</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034408824706331</v>
+        <v>1.04549771628455</v>
       </c>
       <c r="J4">
-        <v>1.039501634388372</v>
+        <v>1.027388874576283</v>
       </c>
       <c r="K4">
-        <v>1.046011597954687</v>
+        <v>1.037766959020802</v>
       </c>
       <c r="L4">
-        <v>1.054673305958044</v>
+        <v>1.036620970992783</v>
       </c>
       <c r="M4">
-        <v>1.059535648620599</v>
+        <v>1.043453585085743</v>
       </c>
       <c r="N4">
-        <v>1.040977845941707</v>
+        <v>1.028847884621333</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035233043797169</v>
+        <v>1.009412800587357</v>
       </c>
       <c r="D5">
-        <v>1.043755741998521</v>
+        <v>1.028925217844829</v>
       </c>
       <c r="E5">
-        <v>1.052494923098805</v>
+        <v>1.027950948796012</v>
       </c>
       <c r="F5">
-        <v>1.057367610003806</v>
+        <v>1.034871749378957</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03444947223664</v>
+        <v>1.045760855486533</v>
       </c>
       <c r="J5">
-        <v>1.039671221576712</v>
+        <v>1.028129895409262</v>
       </c>
       <c r="K5">
-        <v>1.046168897943363</v>
+        <v>1.038470465833202</v>
       </c>
       <c r="L5">
-        <v>1.054886995156008</v>
+        <v>1.037506894173277</v>
       </c>
       <c r="M5">
-        <v>1.059748088848261</v>
+        <v>1.044352240528196</v>
       </c>
       <c r="N5">
-        <v>1.041147673963307</v>
+        <v>1.02958995778889</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035277917506446</v>
+        <v>1.009616883817648</v>
       </c>
       <c r="D6">
-        <v>1.043790865147357</v>
+        <v>1.029080795858959</v>
       </c>
       <c r="E6">
-        <v>1.052539470238581</v>
+        <v>1.028137535860321</v>
       </c>
       <c r="F6">
-        <v>1.0574118982683</v>
+        <v>1.03506009220866</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034456278576532</v>
+        <v>1.04580470381618</v>
       </c>
       <c r="J6">
-        <v>1.03969969286634</v>
+        <v>1.02825377797792</v>
       </c>
       <c r="K6">
-        <v>1.046195302165895</v>
+        <v>1.038588050577316</v>
       </c>
       <c r="L6">
-        <v>1.054922881391439</v>
+        <v>1.03765509895934</v>
       </c>
       <c r="M6">
-        <v>1.059783761245637</v>
+        <v>1.044502538157924</v>
       </c>
       <c r="N6">
-        <v>1.041176185685431</v>
+        <v>1.029714016285005</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034969387811292</v>
+        <v>1.008208797585967</v>
       </c>
       <c r="D7">
-        <v>1.043549363973444</v>
+        <v>1.028007534162801</v>
       </c>
       <c r="E7">
-        <v>1.052233246174616</v>
+        <v>1.026850933171568</v>
       </c>
       <c r="F7">
-        <v>1.057107430415791</v>
+        <v>1.033761161090397</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034409369083884</v>
+        <v>1.045501254808706</v>
       </c>
       <c r="J7">
-        <v>1.039503900630901</v>
+        <v>1.027398812367996</v>
       </c>
       <c r="K7">
-        <v>1.04601370028247</v>
+        <v>1.037776395471083</v>
       </c>
       <c r="L7">
-        <v>1.054676160821944</v>
+        <v>1.036632845495844</v>
       </c>
       <c r="M7">
-        <v>1.059538487072439</v>
+        <v>1.043465632738682</v>
       </c>
       <c r="N7">
-        <v>1.040980115402561</v>
+        <v>1.028857836525849</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03368054614868</v>
+        <v>1.002200739231715</v>
       </c>
       <c r="D8">
-        <v>1.042540241675745</v>
+        <v>1.023432553055616</v>
       </c>
       <c r="E8">
-        <v>1.050955541797798</v>
+        <v>1.021380899755264</v>
       </c>
       <c r="F8">
-        <v>1.055836472353252</v>
+        <v>1.02823313284379</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034210612394826</v>
+        <v>1.044183749708765</v>
       </c>
       <c r="J8">
-        <v>1.038685071334617</v>
+        <v>1.023745294761354</v>
       </c>
       <c r="K8">
-        <v>1.045253607469034</v>
+        <v>1.034304201436219</v>
       </c>
       <c r="L8">
-        <v>1.053645911585388</v>
+        <v>1.032278836853592</v>
       </c>
       <c r="M8">
-        <v>1.058513686022883</v>
+        <v>1.039043780951763</v>
       </c>
       <c r="N8">
-        <v>1.040160123274755</v>
+        <v>1.025199130505141</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031412359731079</v>
+        <v>0.9911147656335884</v>
       </c>
       <c r="D9">
-        <v>1.040763300994947</v>
+        <v>1.015012258230424</v>
       </c>
       <c r="E9">
-        <v>1.048712668016438</v>
+        <v>1.011366727488034</v>
       </c>
       <c r="F9">
-        <v>1.053603247467022</v>
+        <v>1.018091350086948</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033850297140171</v>
+        <v>1.041668489746171</v>
       </c>
       <c r="J9">
-        <v>1.037240546735714</v>
+        <v>1.016985233719604</v>
       </c>
       <c r="K9">
-        <v>1.043910418167545</v>
+        <v>1.027866378555796</v>
       </c>
       <c r="L9">
-        <v>1.051834325589952</v>
+        <v>1.02427804060334</v>
       </c>
       <c r="M9">
-        <v>1.056709450598644</v>
+        <v>1.030897571794081</v>
       </c>
       <c r="N9">
-        <v>1.038713547285232</v>
+        <v>1.018429469401323</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02990223528264</v>
+        <v>0.9833505135861267</v>
       </c>
       <c r="D10">
-        <v>1.039579594510025</v>
+        <v>1.009133836299855</v>
       </c>
       <c r="E10">
-        <v>1.047223272592382</v>
+        <v>1.00441033474984</v>
       </c>
       <c r="F10">
-        <v>1.052118780524098</v>
+        <v>1.011031694089454</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033603337745488</v>
+        <v>1.039852840977802</v>
       </c>
       <c r="J10">
-        <v>1.036276472168579</v>
+        <v>1.012240643839028</v>
       </c>
       <c r="K10">
-        <v>1.043012452178951</v>
+        <v>1.023340111840101</v>
       </c>
       <c r="L10">
-        <v>1.050629245227095</v>
+        <v>1.018700413218513</v>
       </c>
       <c r="M10">
-        <v>1.055507760143365</v>
+        <v>1.025204584167511</v>
       </c>
       <c r="N10">
-        <v>1.037748103621631</v>
+        <v>1.013678141658904</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029248816567518</v>
+        <v>0.9798906287993016</v>
       </c>
       <c r="D11">
-        <v>1.039067269842546</v>
+        <v>1.006519831076352</v>
       </c>
       <c r="E11">
-        <v>1.046579750483607</v>
+        <v>1.00132491167987</v>
       </c>
       <c r="F11">
-        <v>1.051477035971391</v>
+        <v>1.00789696798592</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033494806616595</v>
+        <v>1.03903162867498</v>
       </c>
       <c r="J11">
-        <v>1.03585877568433</v>
+        <v>1.010124588425754</v>
       </c>
       <c r="K11">
-        <v>1.042623039639365</v>
+        <v>1.021319831507842</v>
       </c>
       <c r="L11">
-        <v>1.050108071216006</v>
+        <v>1.016221885285822</v>
       </c>
       <c r="M11">
-        <v>1.054987696166408</v>
+        <v>1.02267148000027</v>
       </c>
       <c r="N11">
-        <v>1.037329813960464</v>
+        <v>1.011559081204228</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029006179677952</v>
+        <v>0.9785899074007317</v>
       </c>
       <c r="D12">
-        <v>1.038877005079126</v>
+        <v>1.005538036007301</v>
       </c>
       <c r="E12">
-        <v>1.046340928547306</v>
+        <v>1.000167221964648</v>
       </c>
       <c r="F12">
-        <v>1.05123882074816</v>
+        <v>1.006720249560056</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033454253967133</v>
+        <v>1.038721138614863</v>
       </c>
       <c r="J12">
-        <v>1.035703588391589</v>
+        <v>1.009328857029065</v>
       </c>
       <c r="K12">
-        <v>1.042478307096105</v>
+        <v>1.020559899577683</v>
       </c>
       <c r="L12">
-        <v>1.049914580130366</v>
+        <v>1.015291218966675</v>
       </c>
       <c r="M12">
-        <v>1.05479456366693</v>
+        <v>1.02171982286969</v>
       </c>
       <c r="N12">
-        <v>1.037174406283967</v>
+        <v>1.010762219777684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029058222851549</v>
+        <v>0.9788696353940328</v>
       </c>
       <c r="D13">
-        <v>1.038917815894762</v>
+        <v>1.0057491336904</v>
       </c>
       <c r="E13">
-        <v>1.046392147105199</v>
+        <v>1.000416086870175</v>
       </c>
       <c r="F13">
-        <v>1.051289911587134</v>
+        <v>1.006973229000886</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033462963472425</v>
+        <v>1.038787989902685</v>
       </c>
       <c r="J13">
-        <v>1.035736878220266</v>
+        <v>1.009499992643099</v>
       </c>
       <c r="K13">
-        <v>1.042509356658689</v>
+        <v>1.02072334528703</v>
       </c>
       <c r="L13">
-        <v>1.049956080259148</v>
+        <v>1.015491312517715</v>
       </c>
       <c r="M13">
-        <v>1.054835989308705</v>
+        <v>1.021924451954444</v>
       </c>
       <c r="N13">
-        <v>1.03720774338802</v>
+        <v>1.01093359842392</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029228758656408</v>
+        <v>0.9797834334794779</v>
       </c>
       <c r="D14">
-        <v>1.039051541768351</v>
+        <v>1.006438899854715</v>
       </c>
       <c r="E14">
-        <v>1.046560005080636</v>
+        <v>1.001229457592344</v>
       </c>
       <c r="F14">
-        <v>1.051457341811862</v>
+        <v>1.007799955730185</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033491459402193</v>
+        <v>1.039006075921151</v>
       </c>
       <c r="J14">
-        <v>1.035845948589058</v>
+        <v>1.010059014473887</v>
       </c>
       <c r="K14">
-        <v>1.042611077779926</v>
+        <v>1.021257211943328</v>
       </c>
       <c r="L14">
-        <v>1.050092075215713</v>
+        <v>1.016145163806627</v>
       </c>
       <c r="M14">
-        <v>1.054971730902871</v>
+        <v>1.022593038222658</v>
       </c>
       <c r="N14">
-        <v>1.037316968649246</v>
+        <v>1.011493414129829</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029333840939539</v>
+        <v>0.9803443653091096</v>
       </c>
       <c r="D15">
-        <v>1.039133939422217</v>
+        <v>1.006862435074524</v>
       </c>
       <c r="E15">
-        <v>1.046663455889094</v>
+        <v>1.001729042296147</v>
       </c>
       <c r="F15">
-        <v>1.051560521973367</v>
+        <v>1.008307673905289</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033508984981138</v>
+        <v>1.039139717029532</v>
       </c>
       <c r="J15">
-        <v>1.035913145664838</v>
+        <v>1.010402141554277</v>
       </c>
       <c r="K15">
-        <v>1.042673739965809</v>
+        <v>1.021584871009342</v>
       </c>
       <c r="L15">
-        <v>1.050175878965325</v>
+        <v>1.016546678191217</v>
       </c>
       <c r="M15">
-        <v>1.055055371428649</v>
+        <v>1.023003535318502</v>
       </c>
       <c r="N15">
-        <v>1.037384261152581</v>
+        <v>1.01183702849003</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029945610586553</v>
+        <v>0.9835780002020973</v>
       </c>
       <c r="D16">
-        <v>1.039613600715329</v>
+        <v>1.009305829337044</v>
       </c>
       <c r="E16">
-        <v>1.047266010540331</v>
+        <v>1.004613508678533</v>
       </c>
       <c r="F16">
-        <v>1.052161392991221</v>
+        <v>1.011238041248462</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033610507008779</v>
+        <v>1.03990658802688</v>
       </c>
       <c r="J16">
-        <v>1.036304188189988</v>
+        <v>1.012379741328716</v>
       </c>
       <c r="K16">
-        <v>1.043038283904972</v>
+        <v>1.023472882353017</v>
       </c>
       <c r="L16">
-        <v>1.050663847261696</v>
+        <v>1.018863527003792</v>
       </c>
       <c r="M16">
-        <v>1.055542280972249</v>
+        <v>1.025371220563145</v>
       </c>
       <c r="N16">
-        <v>1.03777585900297</v>
+        <v>1.013817436682982</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030329485104183</v>
+        <v>0.9855795751305864</v>
       </c>
       <c r="D17">
-        <v>1.039914541452087</v>
+        <v>1.010819774874917</v>
       </c>
       <c r="E17">
-        <v>1.047644351664625</v>
+        <v>1.006402820156228</v>
       </c>
       <c r="F17">
-        <v>1.052538582577127</v>
+        <v>1.013054898918137</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033673762086652</v>
+        <v>1.040378116747722</v>
       </c>
       <c r="J17">
-        <v>1.03654941352106</v>
+        <v>1.013603414645059</v>
       </c>
       <c r="K17">
-        <v>1.043266796041657</v>
+        <v>1.024640717048414</v>
       </c>
       <c r="L17">
-        <v>1.050970107211516</v>
+        <v>1.020299508444824</v>
       </c>
       <c r="M17">
-        <v>1.055847781016315</v>
+        <v>1.0268378359377</v>
       </c>
       <c r="N17">
-        <v>1.03802143258214</v>
+        <v>1.015042847755791</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030553438423583</v>
+        <v>0.9867376738218794</v>
       </c>
       <c r="D18">
-        <v>1.040090097017764</v>
+        <v>1.011696251479159</v>
       </c>
       <c r="E18">
-        <v>1.047865166255065</v>
+        <v>1.007439470860501</v>
       </c>
       <c r="F18">
-        <v>1.052758691096052</v>
+        <v>1.01410717590756</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033710503675289</v>
+        <v>1.040649785885175</v>
       </c>
       <c r="J18">
-        <v>1.036692425540383</v>
+        <v>1.014311251433716</v>
       </c>
       <c r="K18">
-        <v>1.043400026577678</v>
+        <v>1.025316100997317</v>
       </c>
       <c r="L18">
-        <v>1.051148804542462</v>
+        <v>1.021131013178672</v>
       </c>
       <c r="M18">
-        <v>1.056026000580938</v>
+        <v>1.027686764456068</v>
       </c>
       <c r="N18">
-        <v>1.038164647694934</v>
+        <v>1.015751689753878</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030629808471763</v>
+        <v>0.9871309884794787</v>
       </c>
       <c r="D19">
-        <v>1.040149960612318</v>
+        <v>1.011994006373496</v>
       </c>
       <c r="E19">
-        <v>1.04794048112331</v>
+        <v>1.007791768638235</v>
       </c>
       <c r="F19">
-        <v>1.05283375937721</v>
+        <v>1.01446472780229</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033723005468402</v>
+        <v>1.040741852823476</v>
       </c>
       <c r="J19">
-        <v>1.036741184890166</v>
+        <v>1.014551616786822</v>
       </c>
       <c r="K19">
-        <v>1.043445445099597</v>
+        <v>1.02554541948958</v>
       </c>
       <c r="L19">
-        <v>1.051209746046795</v>
+        <v>1.021413518594814</v>
       </c>
       <c r="M19">
-        <v>1.056086773322207</v>
+        <v>1.027975136238255</v>
       </c>
       <c r="N19">
-        <v>1.038213476288586</v>
+        <v>1.015992396453357</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030288294259367</v>
+        <v>0.9853658019183178</v>
       </c>
       <c r="D20">
-        <v>1.039882251082791</v>
+        <v>1.010658027385073</v>
       </c>
       <c r="E20">
-        <v>1.047603745310844</v>
+        <v>1.006211574881635</v>
       </c>
       <c r="F20">
-        <v>1.052498103330445</v>
+        <v>1.012860743986397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033666991344113</v>
+        <v>1.040327875650094</v>
       </c>
       <c r="J20">
-        <v>1.036523105617009</v>
+        <v>1.013472740836744</v>
       </c>
       <c r="K20">
-        <v>1.043242284713365</v>
+        <v>1.024516021840602</v>
       </c>
       <c r="L20">
-        <v>1.050937242092352</v>
+        <v>1.020146073566353</v>
       </c>
       <c r="M20">
-        <v>1.055815000998839</v>
+        <v>1.026681160468718</v>
       </c>
       <c r="N20">
-        <v>1.037995087317847</v>
+        <v>1.01491198837568</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029178538122884</v>
+        <v>0.9795147796117947</v>
       </c>
       <c r="D21">
-        <v>1.039012161844214</v>
+        <v>1.006236084505508</v>
       </c>
       <c r="E21">
-        <v>1.046510569261867</v>
+        <v>1.000990266319617</v>
       </c>
       <c r="F21">
-        <v>1.051408033433181</v>
+        <v>1.007556851413106</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033483074664993</v>
+        <v>1.038942007237075</v>
       </c>
       <c r="J21">
-        <v>1.035813831078084</v>
+        <v>1.009894669192142</v>
       </c>
       <c r="K21">
-        <v>1.042581125850514</v>
+        <v>1.021100267719115</v>
       </c>
       <c r="L21">
-        <v>1.05005202542893</v>
+        <v>1.015952902057796</v>
       </c>
       <c r="M21">
-        <v>1.054931757207984</v>
+        <v>1.022396457434128</v>
       </c>
       <c r="N21">
-        <v>1.037284805527722</v>
+        <v>1.011328835458932</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028481206736565</v>
+        <v>0.9757454778210385</v>
       </c>
       <c r="D22">
-        <v>1.038465307766889</v>
+        <v>1.003392843601505</v>
       </c>
       <c r="E22">
-        <v>1.045824466424179</v>
+        <v>0.9976398180987586</v>
       </c>
       <c r="F22">
-        <v>1.050723573735511</v>
+        <v>1.004150325930948</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033366054327454</v>
+        <v>1.038038988425688</v>
       </c>
       <c r="J22">
-        <v>1.035367672817713</v>
+        <v>1.007588412760282</v>
       </c>
       <c r="K22">
-        <v>1.042164923858511</v>
+        <v>1.018897385908198</v>
       </c>
       <c r="L22">
-        <v>1.049496011321965</v>
+        <v>1.013258176098732</v>
       </c>
       <c r="M22">
-        <v>1.054376672673261</v>
+        <v>1.019640009994404</v>
       </c>
       <c r="N22">
-        <v>1.036838013671446</v>
+        <v>1.009019303878408</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028850835655364</v>
+        <v>0.9777525400052629</v>
       </c>
       <c r="D23">
-        <v>1.038755185585723</v>
+        <v>1.004906256656434</v>
       </c>
       <c r="E23">
-        <v>1.046188066477351</v>
+        <v>0.9994225804897716</v>
       </c>
       <c r="F23">
-        <v>1.051086332092906</v>
+        <v>1.005963218880191</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033428220122298</v>
+        <v>1.038520765765966</v>
       </c>
       <c r="J23">
-        <v>1.035604209344945</v>
+        <v>1.008816534509225</v>
       </c>
       <c r="K23">
-        <v>1.042385608008583</v>
+        <v>1.020070568220609</v>
       </c>
       <c r="L23">
-        <v>1.049790711834502</v>
+        <v>1.014692407916445</v>
       </c>
       <c r="M23">
-        <v>1.054670909857692</v>
+        <v>1.021107365547877</v>
       </c>
       <c r="N23">
-        <v>1.037074886107678</v>
+        <v>1.010249169701101</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030306906487534</v>
+        <v>0.985462425774451</v>
       </c>
       <c r="D24">
-        <v>1.039896841643101</v>
+        <v>1.010731134416052</v>
       </c>
       <c r="E24">
-        <v>1.047622093158388</v>
+        <v>1.006298012051803</v>
       </c>
       <c r="F24">
-        <v>1.052516393850042</v>
+        <v>1.012948497266093</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033670051227173</v>
+        <v>1.040350587826046</v>
       </c>
       <c r="J24">
-        <v>1.036534993099908</v>
+        <v>1.013531804938414</v>
       </c>
       <c r="K24">
-        <v>1.043253360502872</v>
+        <v>1.024572384111669</v>
       </c>
       <c r="L24">
-        <v>1.050952092236367</v>
+        <v>1.020215422932274</v>
       </c>
       <c r="M24">
-        <v>1.055829812795741</v>
+        <v>1.026751975489757</v>
       </c>
       <c r="N24">
-        <v>1.038006991682335</v>
+        <v>1.014971136355149</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031998390633717</v>
+        <v>0.9940436556954431</v>
       </c>
       <c r="D25">
-        <v>1.041222525777532</v>
+        <v>1.017233957990809</v>
       </c>
       <c r="E25">
-        <v>1.049291477909878</v>
+        <v>1.014002874721101</v>
       </c>
       <c r="F25">
-        <v>1.054179828090162</v>
+        <v>1.020763607378106</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033944638948899</v>
+        <v>1.042342544205534</v>
       </c>
       <c r="J25">
-        <v>1.037614180874963</v>
+        <v>1.018773150861408</v>
       </c>
       <c r="K25">
-        <v>1.044258110552632</v>
+        <v>1.029570502600888</v>
       </c>
       <c r="L25">
-        <v>1.052302202332692</v>
+        <v>1.026387634656608</v>
       </c>
       <c r="M25">
-        <v>1.057175693432831</v>
+        <v>1.033047924443935</v>
       </c>
       <c r="N25">
-        <v>1.039087712027816</v>
+        <v>1.020219925590544</v>
       </c>
     </row>
   </sheetData>
